--- a/Question_Answer.xlsx
+++ b/Question_Answer.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\pillink-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="11080" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11070" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,51 +19,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <x:si>
-    <x:t>내 페이지&gt;기록에서 확인</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <x:si>
     <x:t>answer</x:t>
   </x:si>
   <x:si>
+    <x:t>비밀번호를 잊어버렸어요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복용 기록은 어디서 보나요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약 복용법에 대해 알려줘</x:t>
+  </x:si>
+  <x:si>
     <x:t>알람 기능을 설정하는 방법</x:t>
   </x:si>
   <x:si>
+    <x:t>약 사진으로도 검색이 되나요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가족과 정보를 연동하고 싶어</x:t>
+  </x:si>
+  <x:si>
     <x:t>question</x:t>
   </x:si>
   <x:si>
-    <x:t>약 복용법에 대해 알려줘</x:t>
+    <x:t>제품명을 알려주세요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가족 연동은 내 페이지 &gt; 가족 설정에서 설정하실 수 있어요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 페이지&gt;기록에서 캘린더를 통해 확인할 수 있어요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림기능은 설정 &gt; 내 페이지에서 설정하실 수 있어요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 &gt; 비밀번호 찾기를 통해 확인해보세요</x:t>
   </x:si>
   <x:si>
     <x:t>네. 약의 사진을 통해 약을 분석할 수 있어요</x:t>
   </x:si>
   <x:si>
-    <x:t>약 복용방법은 ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가족 연동은 내 페이지 &gt; 가족 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복용 기록은 어디서 보나요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호를 잊어버렸어요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약 사진으로도 검색이 되나요</x:t>
+    <x:t>가족이 먹는 약을 모니터링  할 수 있나요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네. 가족들의 계정과 연동해서 확인할 수 있어요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원은 단순한 약 상호작용과 부작용 등과 관련된 정보는 가능합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약의 부작용에 대해 알고 싶어</x:t>
   </x:si>
   <x:si>
     <x:t>비회원으로도 사용이 가능한가요.</x:t>
   </x:si>
   <x:si>
-    <x:t>알림기능은 설정 &gt; 내 페이지에서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가족과 정보를 연동하고 싶어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비회원은 단순한 약 상호작용과 부작용 등과 관련된 정보는 가능합니다.</x:t>
+    <x:t>약과 상호작용하는 약을 알고 싶어</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -131,8 +146,11 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -855,10 +873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B8"/>
+  <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="B9" activeCellId="0" sqref="B9:B9"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="A12" activeCellId="0" sqref="A12:A12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
@@ -869,67 +887,94 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
       <x:c r="A6" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B8" t="s">
-        <x:v>0</x:v>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>